--- a/data/3.xlsx
+++ b/data/3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9384"/>
+    <workbookView windowWidth="23040" windowHeight="11232"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -49,9 +49,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -70,6 +70,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -79,6 +94,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -87,16 +125,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -108,6 +139,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -116,6 +162,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -123,84 +192,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,187 +215,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,12 +409,25 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -424,7 +437,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -446,24 +489,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -471,180 +501,150 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="8" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -978,7 +978,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1310,7 +1310,7 @@
         <v>6</v>
       </c>
       <c r="C12">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -1339,7 +1339,7 @@
         <v>10</v>
       </c>
       <c r="C13">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1368,7 +1368,7 @@
         <v>4</v>
       </c>
       <c r="C14">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>8</v>
       </c>
       <c r="C15">
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>5</v>
       </c>
       <c r="C16">
-        <v>-6</v>
+        <v>-3</v>
       </c>
       <c r="D16">
         <v>0</v>
